--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siyunhe/Desktop/CS_Master/2024Summer/CS5800/project/CS5800-final-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangjin/Desktop/5800/CS5800-final-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94881074-DADA-3C41-AF07-5FAC726DBB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE581A90-E6B8-414C-B8A2-5338A682F142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{22DDADC7-BF14-8F41-9EB4-5B8DDAA5E181}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{22DDADC7-BF14-8F41-9EB4-5B8DDAA5E181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$38</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,120 +39,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>student_name</t>
   </si>
   <si>
-    <t>Yue Yu</t>
-  </si>
-  <si>
-    <t>Shuying Du</t>
-  </si>
-  <si>
-    <t>Shixian Chen</t>
-  </si>
-  <si>
-    <t>Zi Ju</t>
-  </si>
-  <si>
-    <t>Dalin Wang</t>
-  </si>
-  <si>
-    <t>Jinghan Gao</t>
-  </si>
-  <si>
-    <t>Ke Wang</t>
-  </si>
-  <si>
-    <t>Haochen Su</t>
-  </si>
-  <si>
-    <t>Tianhao He</t>
-  </si>
-  <si>
-    <t>Sara Bavan</t>
-  </si>
-  <si>
-    <t>Hao Niu</t>
-  </si>
-  <si>
-    <t>Calvin Lo</t>
-  </si>
-  <si>
-    <t>Jiawei He</t>
-  </si>
-  <si>
-    <t>Tianhao Zhang</t>
-  </si>
-  <si>
-    <t>Mingyi Ni</t>
-  </si>
-  <si>
-    <t>Hao Wu</t>
-  </si>
-  <si>
-    <t>Jieling Gong</t>
-  </si>
-  <si>
-    <t>Cong Fu</t>
-  </si>
-  <si>
-    <t>Ziliei Liu</t>
-  </si>
-  <si>
-    <t>Minghe Hu</t>
-  </si>
-  <si>
-    <t>Tsz Wai Tam</t>
-  </si>
-  <si>
-    <t>Wei Zhao</t>
-  </si>
-  <si>
-    <t>Danni Hu</t>
-  </si>
-  <si>
-    <t>Wenjing Yang</t>
-  </si>
-  <si>
-    <t>Weiwei Zhang</t>
-  </si>
-  <si>
-    <t>Bo Pang</t>
-  </si>
-  <si>
-    <t>Jin Zhang</t>
-  </si>
-  <si>
-    <t>Siyun He</t>
-  </si>
-  <si>
-    <t>Jiageng Bao</t>
-  </si>
-  <si>
-    <t>Jiawei Tong</t>
-  </si>
-  <si>
-    <t>Mingyi Li</t>
-  </si>
-  <si>
-    <t>Yuxin Wang</t>
-  </si>
-  <si>
-    <t>Jiani Guo</t>
-  </si>
-  <si>
-    <t>Annan Fu</t>
-  </si>
-  <si>
-    <t>Nuanxin Jin</t>
-  </si>
-  <si>
-    <t>Sherry Tsai</t>
-  </si>
-  <si>
-    <t>Helen Li</t>
+    <t>Shixian</t>
+  </si>
+  <si>
+    <t>Yue</t>
+  </si>
+  <si>
+    <t>Shuying</t>
+  </si>
+  <si>
+    <t>Zi</t>
+  </si>
+  <si>
+    <t>Dalin</t>
+  </si>
+  <si>
+    <t>Jinghan</t>
+  </si>
+  <si>
+    <t>Ke</t>
+  </si>
+  <si>
+    <t>Haochen</t>
+  </si>
+  <si>
+    <t>Tianhao</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Hao</t>
+  </si>
+  <si>
+    <t>Calvin</t>
+  </si>
+  <si>
+    <t>Jiawei</t>
+  </si>
+  <si>
+    <t>Mingyi</t>
+  </si>
+  <si>
+    <t>Jieling</t>
+  </si>
+  <si>
+    <t>Cong</t>
+  </si>
+  <si>
+    <t>Ziliei</t>
+  </si>
+  <si>
+    <t>Minghe</t>
+  </si>
+  <si>
+    <t>Tsz</t>
+  </si>
+  <si>
+    <t>Wei</t>
+  </si>
+  <si>
+    <t>Danni</t>
+  </si>
+  <si>
+    <t>Wenjing</t>
+  </si>
+  <si>
+    <t>Weiwei</t>
+  </si>
+  <si>
+    <t>Bo</t>
+  </si>
+  <si>
+    <t>Jin</t>
+  </si>
+  <si>
+    <t>Siyun</t>
+  </si>
+  <si>
+    <t>Ha</t>
+  </si>
+  <si>
+    <t>Helen</t>
+  </si>
+  <si>
+    <t>Sherry</t>
+  </si>
+  <si>
+    <t>Nuanxin</t>
+  </si>
+  <si>
+    <t>Annan</t>
+  </si>
+  <si>
+    <t>Jiani</t>
+  </si>
+  <si>
+    <t>Yuxin</t>
+  </si>
+  <si>
+    <t>Jiageng</t>
   </si>
 </sst>
 </file>
@@ -529,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE00D861-8BFC-5447-A128-40EAC0DEC2DF}">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -545,17 +539,17 @@
     </row>
     <row r="2" spans="1:1" ht="18">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18">
@@ -610,125 +604,126 @@
     </row>
     <row r="15" spans="1:1" ht="18">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A38" xr:uid="{AE00D861-8BFC-5447-A128-40EAC0DEC2DF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>